--- a/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_HOSOLUONG.xlsx
+++ b/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_HOSOLUONG.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Import_HoSoLuong" sheetId="1" r:id="rId1"/>
-    <sheet name="DanhMucChung" sheetId="2" r:id="rId2"/>
-    <sheet name="DanhMucNgach" sheetId="3" r:id="rId3"/>
-    <sheet name="DanhMucBac" sheetId="4" r:id="rId4"/>
+    <sheet name="NhomLuong" sheetId="2" r:id="rId2"/>
+    <sheet name="Thue" sheetId="5" r:id="rId3"/>
+    <sheet name="ThangLuong" sheetId="6" r:id="rId4"/>
+    <sheet name="NgachLuong" sheetId="3" r:id="rId5"/>
+    <sheet name="BacLuong" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="BAC_LUONG">OFFSET(DanhMucBac!$B$1,1,MATCH(NL,DanhMucBac!$1:$1,0)-2,COUNTA(OFFSET(DanhMucBac!$B$1,0,MATCH(NL,DanhMucBac!$1:$1,0)-2,200,1))-1,1)</definedName>
-    <definedName name="NGACH">OFFSET(DanhMucNgach!$B$1,1,MATCH(TL,DanhMucNgach!$1:$1,0)-2,COUNTA(OFFSET(DanhMucNgach!$B$1,0,MATCH(TL,DanhMucNgach!$1:$1,0)-2,200,1))-1,1)</definedName>
-    <definedName name="NHOMLUONG">OFFSET(DanhMucChung!$A$2,,,COUNTA(DanhMucChung!$A:$A),1)</definedName>
+    <definedName name="BAC_LUONG">OFFSET(BacLuong!$B$1,1,MATCH(NL,BacLuong!$1:$1,0)-2,COUNTA(OFFSET(BacLuong!$B$1,0,MATCH(NL,BacLuong!$1:$1,0)-2,200,1))-1,1)</definedName>
+    <definedName name="NGACH">OFFSET(NgachLuong!$B$2,1,MATCH(TL,NgachLuong!$2:$2,0)-2,COUNTA(OFFSET(NgachLuong!$B$2,0,MATCH(TL,NgachLuong!$2:$2,0)-2,200,1))-1,1)</definedName>
+    <definedName name="NHOMLUONG">OFFSET(NhomLuong!$A$2,,,COUNTA(NhomLuong!$A:$A),1)</definedName>
     <definedName name="NL">INDIRECT("Import_HoSoLuong!$K$"&amp;ROW())</definedName>
-    <definedName name="TAX">OFFSET(DanhMucChung!$C$2,,,COUNTA(DanhMucChung!$C:$C),1)</definedName>
-    <definedName name="THANGLUONG">OFFSET(DanhMucChung!$E$2,,,COUNTA(DanhMucChung!$E:$E),1)</definedName>
+    <definedName name="TAX">OFFSET(NhomLuong!#REF!,,,COUNTA(NhomLuong!#REF!),1)</definedName>
+    <definedName name="THANGLUONG">OFFSET(NhomLuong!#REF!,,,COUNTA(NhomLuong!#REF!),1)</definedName>
     <definedName name="TL">INDIRECT("Import_HoSoLuong!$I$"&amp;ROW())</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -119,31 +121,52 @@
     <t>ID_BACLUONG</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>ABCB</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>ABC_1</t>
-  </si>
-  <si>
-    <t>abc_1_1</t>
-  </si>
-  <si>
-    <t>abc_1_0</t>
-  </si>
-  <si>
-    <t>B000</t>
-  </si>
-  <si>
-    <t>B0</t>
+    <t>NGACHLUONG</t>
+  </si>
+  <si>
+    <t>BACLUONG</t>
+  </si>
+  <si>
+    <t>&amp;=Table.LTT_V1</t>
+  </si>
+  <si>
+    <t>&amp;=Table1.SAL_TYPE_NAME</t>
+  </si>
+  <si>
+    <t>&amp;=Table1.SAL_TYPE_ID</t>
+  </si>
+  <si>
+    <t>&amp;=Table2.TAX_ID</t>
+  </si>
+  <si>
+    <t>&amp;=Table2.TAX_NAME</t>
+  </si>
+  <si>
+    <t>&amp;=Table3.SAL_GROUP_ID</t>
+  </si>
+  <si>
+    <t>&amp;=Table3.SAL_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>&amp;=Table4.SAL_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>&amp;=Table4.SAL_LEVEL_NAME</t>
+  </si>
+  <si>
+    <t>&amp;=Table4.SAL_LEVEL_ID</t>
+  </si>
+  <si>
+    <t>&amp;=Table5.SAL_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>&amp;=Table5.SAL_LEVEL_NAME</t>
+  </si>
+  <si>
+    <t>&amp;=Table5.SAL_RANK_NAME</t>
+  </si>
+  <si>
+    <t>&amp;=Table5.SAL_RANK_ID</t>
   </si>
 </sst>
 </file>
@@ -154,7 +177,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,16 +212,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,25 +258,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -249,18 +273,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -545,10 +575,10 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,25 +588,24 @@
     <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -593,329 +622,164 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="T1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="U1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="V1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="W1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2">
-        <f>VLOOKUP(E2,DanhMucChung!$A$2:$B$1000,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2">
-        <f>VLOOKUP(G2,DanhMucChung!$C$2:$D$1000,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2">
-        <f>VLOOKUP(I2,DanhMucChung!$E$2:$F$1000,2,FALSE)</f>
-        <v>204</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="e">
-        <f>VLOOKUP(K2,DanhMucNgach!A2:Z400,MATCH(K2,DanhMucNgach!A2:Z2,0)-2,FALSE)</f>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="e">
+        <f>R2*J2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="2" t="e">
+        <f>VLOOKUP(E2,NhomLuong!$A$2:$B$1000,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7">
-        <f>W2*O2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2">
-        <f>VLOOKUP(I3,DanhMucChung!$E$2:$F$1000,2,FALSE)</f>
-        <v>204</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7">
-        <f t="shared" ref="P3:P8" si="0">W3*O3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2">
-        <f>VLOOKUP(I4,DanhMucChung!$E$2:$F$1000,2,FALSE)</f>
-        <v>204</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2">
-        <f>VLOOKUP(I5,DanhMucChung!$E$2:$F$1000,2,FALSE)</f>
-        <v>204</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2">
-        <f>VLOOKUP(I6,DanhMucChung!$E$2:$F$1000,2,FALSE)</f>
-        <v>184</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2">
-        <f>VLOOKUP(I7,DanhMucChung!$E$2:$F$1000,2,FALSE)</f>
-        <v>204</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2">
-        <f>VLOOKUP(I8,DanhMucChung!$E$2:$F$1000,2,FALSE)</f>
-        <v>204</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="T2" s="2" t="e">
+        <f>VLOOKUP(F2,NhomLuong!#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U2" s="2" t="e">
+        <f>VLOOKUP(G2,NhomLuong!#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V2" s="2" t="e">
+        <f>VLOOKUP(H2,NgachLuong!A3:Z401,MATCH(H2,NgachLuong!A3:Z3,0)-2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8">
       <formula1>NHOMLUONG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8">
       <formula1>TAX</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8">
       <formula1>THANGLUONG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11">
       <formula1>NGACHLUONG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8">
       <formula1>BAC_LUONG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H8">
       <formula1>NGACH</formula1>
     </dataValidation>
   </dataValidations>
@@ -926,66 +790,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F3">
-        <v>204</v>
+      <c r="B2" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -995,40 +825,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1">
-        <v>184</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>205</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>225</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1038,54 +859,123 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1">
-        <v>205</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1">
-        <v>225</v>
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>161</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>182</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3">
-        <v>181</v>
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_HOSOLUONG.xlsx
+++ b/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_HOSOLUONG.xlsx
@@ -9,36 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Import_HoSoLuong" sheetId="1" r:id="rId1"/>
-    <sheet name="NhomLuong" sheetId="2" r:id="rId2"/>
-    <sheet name="Thue" sheetId="5" r:id="rId3"/>
-    <sheet name="ThangLuong" sheetId="6" r:id="rId4"/>
-    <sheet name="NgachLuong" sheetId="3" r:id="rId5"/>
-    <sheet name="BacLuong" sheetId="4" r:id="rId6"/>
+    <sheet name="NhomLuong" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Thue" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="ThangLuong" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="NgachLuong" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="BacLuong" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="BAC_LUONG">OFFSET(BacLuong!$B$1,1,MATCH(NL,BacLuong!$1:$1,0)-2,COUNTA(OFFSET(BacLuong!$B$1,0,MATCH(NL,BacLuong!$1:$1,0)-2,200,1))-1,1)</definedName>
-    <definedName name="NGACH">OFFSET(NgachLuong!$B$2,1,MATCH(TL,NgachLuong!$2:$2,0)-2,COUNTA(OFFSET(NgachLuong!$B$2,0,MATCH(TL,NgachLuong!$2:$2,0)-2,200,1))-1,1)</definedName>
+    <definedName name="BAC_LUONG">OFFSET(bl_nl,MATCH(Import_HoSoLuong!$I1,bl_nl,0)-1,1,COUNTIF(bl_nl,Import_HoSoLuong!$I1),1)</definedName>
+    <definedName name="bl_nl">BacLuong!$C$2:$C$65533</definedName>
+    <definedName name="NGACH">OFFSET(nl_tl,MATCH(Import_HoSoLuong!$G1,nl_tl,0)-1,1,COUNTIF(nl_tl,Import_HoSoLuong!$G1),1)</definedName>
     <definedName name="NHOMLUONG">OFFSET(NhomLuong!$A$2,,,COUNTA(NhomLuong!$A:$A),1)</definedName>
     <definedName name="NL">INDIRECT("Import_HoSoLuong!$K$"&amp;ROW())</definedName>
-    <definedName name="TAX">OFFSET(NhomLuong!#REF!,,,COUNTA(NhomLuong!#REF!),1)</definedName>
-    <definedName name="THANGLUONG">OFFSET(NhomLuong!#REF!,,,COUNTA(NhomLuong!#REF!),1)</definedName>
+    <definedName name="nl_tl">NgachLuong!$A$2:$A$9999</definedName>
+    <definedName name="TAX">OFFSET(Thue!$A$2,,,COUNTA(Thue!$A:$A),1)</definedName>
+    <definedName name="THANGLUONG">OFFSET(ThangLuong!$A$2,,,COUNTA(ThangLuong!$A:$A),1)</definedName>
     <definedName name="TL">INDIRECT("Import_HoSoLuong!$I$"&amp;ROW())</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -127,6 +124,15 @@
     <t>BACLUONG</t>
   </si>
   <si>
+    <t>Thang / ngạch / bậc</t>
+  </si>
+  <si>
+    <t>Thang lương và ngạch lương</t>
+  </si>
+  <si>
+    <t>Thang ngạch lương</t>
+  </si>
+  <si>
     <t>&amp;=Table.LTT_V1</t>
   </si>
   <si>
@@ -136,16 +142,16 @@
     <t>&amp;=Table1.SAL_TYPE_ID</t>
   </si>
   <si>
+    <t>&amp;=Table2.TAX_NAME</t>
+  </si>
+  <si>
     <t>&amp;=Table2.TAX_ID</t>
   </si>
   <si>
-    <t>&amp;=Table2.TAX_NAME</t>
+    <t>&amp;=Table3.SAL_GROUP_NAME</t>
   </si>
   <si>
     <t>&amp;=Table3.SAL_GROUP_ID</t>
-  </si>
-  <si>
-    <t>&amp;=Table3.SAL_GROUP_NAME</t>
   </si>
   <si>
     <t>&amp;=Table4.SAL_GROUP_NAME</t>
@@ -180,28 +186,32 @@
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -211,14 +221,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -230,7 +232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,9 +263,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -277,20 +279,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -572,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,26 +589,26 @@
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="16.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="1" customWidth="1"/>
+    <col min="15" max="18" width="14" style="1" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -630,161 +633,160 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="e">
-        <f>R2*J2</f>
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="str">
+        <f>G2&amp;"_"&amp;H2</f>
+        <v>_</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="e">
+        <f>S2*K2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="2" t="e">
-        <f>VLOOKUP(E2,NhomLuong!$A$2:$B$1000,2,FALSE)</f>
+      <c r="R2" s="5"/>
+      <c r="S2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="2" t="e">
+        <f>VLOOKUP(E2,NhomLuong!$A$2:$B$998,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="T2" s="2" t="e">
-        <f>VLOOKUP(F2,NhomLuong!#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
       <c r="U2" s="2" t="e">
-        <f>VLOOKUP(G2,NhomLuong!#REF!,2,FALSE)</f>
-        <v>#REF!</v>
+        <f>VLOOKUP(F2,Thue!$A$2:$B$999,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="V2" s="2" t="e">
-        <f>VLOOKUP(H2,NgachLuong!A3:Z401,MATCH(H2,NgachLuong!A3:Z3,0)-2,FALSE)</f>
+        <f>VLOOKUP(G2,ThangLuong!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-    </row>
-    <row r="9" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="W2" s="2" t="e">
+        <f>VLOOKUP(G2&amp;"_"&amp;H2,NgachLuong!$C$2:$D$10724,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X2" s="2" t="e">
+        <f>VLOOKUP(G2&amp;"_"&amp;H2&amp;"_"&amp;J2,BacLuong!$E$2:$F$10722,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10">
+      <formula1>NGACHLUONG</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>NHOMLUONG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7">
       <formula1>TAX</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7">
       <formula1>THANGLUONG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11">
-      <formula1>NGACHLUONG</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7">
       <formula1>BAC_LUONG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>NGACH</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -792,17 +794,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
@@ -811,15 +814,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>31</v>
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -827,13 +832,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,15 +851,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>32</v>
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -861,14 +869,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,106 +888,136 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>38</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>A2&amp;"_"&amp;B2</f>
+        <v>&amp;=Table4.SAL_GROUP_NAME_&amp;=Table4.SAL_LEVEL_NAME</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="10" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>A2&amp;"_"&amp;B2</f>
+        <v>&amp;=Table5.SAL_GROUP_NAME_&amp;=Table5.SAL_LEVEL_NAME</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>A2&amp;"_"&amp;B2&amp;"_"&amp;D2</f>
+        <v>&amp;=Table5.SAL_GROUP_NAME_&amp;=Table5.SAL_LEVEL_NAME_&amp;=Table5.SAL_RANK_NAME</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_HOSOLUONG.xlsx
+++ b/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_HOSOLUONG.xlsx
@@ -20,7 +20,7 @@
     <sheet name="BacLuong" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="BAC_LUONG">OFFSET(bl_nl,MATCH(Import_HoSoLuong!$I1,bl_nl,0)-1,1,COUNTIF(bl_nl,Import_HoSoLuong!$I1),1)</definedName>
+    <definedName name="BAC_LUONG">OFFSET(bl_nl,MATCH(Import_HoSoLuong!$X1,bl_nl,0)-1,1,COUNTIF(bl_nl,Import_HoSoLuong!$X1),1)</definedName>
     <definedName name="bl_nl">BacLuong!$C$2:$C$65533</definedName>
     <definedName name="NGACH">OFFSET(nl_tl,MATCH(Import_HoSoLuong!$G1,nl_tl,0)-1,1,COUNTIF(nl_tl,Import_HoSoLuong!$G1),1)</definedName>
     <definedName name="NHOMLUONG">OFFSET(NhomLuong!$A$2,,,COUNTA(NhomLuong!$A:$A),1)</definedName>
@@ -575,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,18 +593,18 @@
     <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
     <col min="7" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="16.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="1" customWidth="1"/>
-    <col min="15" max="18" width="14" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="20.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="16.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="14" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="2.140625" style="1" hidden="1" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -633,135 +633,135 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="T1" s="12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="2" t="str">
-        <f>G2&amp;"_"&amp;H2</f>
-        <v>_</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="e">
-        <f>S2*K2</f>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="e">
+        <f>R2*J2</f>
         <v>#VALUE!</v>
       </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="2" t="e">
+      <c r="S2" s="2" t="e">
         <f>VLOOKUP(E2,NhomLuong!$A$2:$B$998,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="U2" s="2" t="e">
+      <c r="T2" s="2" t="e">
         <f>VLOOKUP(F2,Thue!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="V2" s="2" t="e">
+      <c r="U2" s="2" t="e">
         <f>VLOOKUP(G2,ThangLuong!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="W2" s="2" t="e">
+      <c r="V2" s="2" t="e">
         <f>VLOOKUP(G2&amp;"_"&amp;H2,NgachLuong!$C$2:$D$10724,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="X2" s="2" t="e">
-        <f>VLOOKUP(G2&amp;"_"&amp;H2&amp;"_"&amp;J2,BacLuong!$E$2:$F$10722,2,0)</f>
+      <c r="W2" s="2" t="e">
+        <f>VLOOKUP(G2&amp;"_"&amp;H2&amp;"_"&amp;I2,BacLuong!$E$2:$F$10722,2,0)</f>
         <v>#N/A</v>
       </c>
+      <c r="X2" s="2" t="str">
+        <f>G2&amp;"_"&amp;H2</f>
+        <v>_</v>
+      </c>
     </row>
     <row r="3" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -778,7 +778,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7">
       <formula1>THANGLUONG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I7">
       <formula1>BAC_LUONG</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">

--- a/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_HOSOLUONG.xlsx
+++ b/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_HOSOLUONG.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -173,6 +173,96 @@
   </si>
   <si>
     <t>&amp;=Table5.SAL_RANK_ID</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_CODE</t>
+  </si>
+  <si>
+    <t>FULLNAME_VN</t>
+  </si>
+  <si>
+    <t>EFFECT_DATE</t>
+  </si>
+  <si>
+    <t>SAL_TYPE_NAME</t>
+  </si>
+  <si>
+    <t>TAX_NAME</t>
+  </si>
+  <si>
+    <t>SAL_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>SAL_LEVEL_NAME</t>
+  </si>
+  <si>
+    <t>SAL_RANK_NAME</t>
+  </si>
+  <si>
+    <t>FACTORSALARY</t>
+  </si>
+  <si>
+    <t>SAL_BASIC</t>
+  </si>
+  <si>
+    <t>PERCENTSALARY</t>
+  </si>
+  <si>
+    <t>OTHERSALARY1</t>
+  </si>
+  <si>
+    <t>OTHERSALARY2</t>
+  </si>
+  <si>
+    <t>OTHERSALARY3</t>
+  </si>
+  <si>
+    <t>OTHERSALARY4</t>
+  </si>
+  <si>
+    <t>OTHERSALARY5</t>
+  </si>
+  <si>
+    <t>LTT_V1</t>
+  </si>
+  <si>
+    <t>SAL_TYPE_ID</t>
+  </si>
+  <si>
+    <t>TAX_ID</t>
+  </si>
+  <si>
+    <t>SAL_GROUP_ID</t>
+  </si>
+  <si>
+    <t>SAL_LEVEL_ID</t>
+  </si>
+  <si>
+    <t>SAL_RANK_ID</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=A{r}&amp;"_"&amp;B{r}</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=VLOOKUP(E{r},NhomLuong!$A$2:$B$998,2,FALSE)</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=VLOOKUP(F{r},Thue!$A$2:$B$999,2,FALSE)</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=VLOOKUP(G{r},ThangLuong!$A$2:$B$999,2,FALSE)</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=VLOOKUP(G{r}&amp;"_"&amp;H{r},NgachLuong!$C$2:$D$10724,2,0)</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=VLOOKUP(G{r}&amp;"_"&amp;H{r}&amp;"_"&amp;I{r},BacLuong!$E$2:$F$10722,2,0)</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=A{r}&amp;"_"&amp;B{r}&amp;"_"&amp;D{r}</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=J{r}*R3</t>
   </si>
 </sst>
 </file>
@@ -265,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -294,6 +384,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -575,13 +667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,53 +771,112 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="e">
-        <f>R2*J2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="2" t="s">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="2" t="e">
-        <f>VLOOKUP(E2,NhomLuong!$A$2:$B$998,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T2" s="2" t="e">
-        <f>VLOOKUP(F2,Thue!$A$2:$B$999,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U2" s="2" t="e">
-        <f>VLOOKUP(G2,ThangLuong!$A$2:$B$999,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V2" s="2" t="e">
-        <f>VLOOKUP(G2&amp;"_"&amp;H2,NgachLuong!$C$2:$D$10724,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W2" s="2" t="e">
-        <f>VLOOKUP(G2&amp;"_"&amp;H2&amp;"_"&amp;I2,BacLuong!$E$2:$F$10722,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X2" s="2" t="str">
-        <f>G2&amp;"_"&amp;H2</f>
+      <c r="S3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="2" t="str">
+        <f>G3&amp;"_"&amp;H3</f>
         <v>_</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J4" s="8"/>
@@ -763,25 +914,34 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11">
       <formula1>NGACHLUONG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8">
       <formula1>NHOMLUONG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F8">
       <formula1>TAX</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G8">
       <formula1>THANGLUONG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I8">
       <formula1>BAC_LUONG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H8">
       <formula1>NGACH</formula1>
     </dataValidation>
   </dataValidations>
@@ -942,9 +1102,8 @@
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="str">
-        <f>A2&amp;"_"&amp;B2</f>
-        <v>&amp;=Table4.SAL_GROUP_NAME_&amp;=Table4.SAL_LEVEL_NAME</v>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>41</v>
@@ -962,7 +1121,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,16 +1159,14 @@
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="str">
-        <f>A2&amp;"_"&amp;B2</f>
-        <v>&amp;=Table5.SAL_GROUP_NAME_&amp;=Table5.SAL_LEVEL_NAME</v>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="2" t="str">
-        <f>A2&amp;"_"&amp;B2&amp;"_"&amp;D2</f>
-        <v>&amp;=Table5.SAL_GROUP_NAME_&amp;=Table5.SAL_LEVEL_NAME_&amp;=Table5.SAL_RANK_NAME</v>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>45</v>
